--- a/Sources/Employee.xlsx
+++ b/Sources/Employee.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Id</t>
   </si>
@@ -45,6 +45,60 @@
   </si>
   <si>
     <t>May</t>
+  </si>
+  <si>
+    <t>JM3</t>
+  </si>
+  <si>
+    <t>Tom Hen</t>
+  </si>
+  <si>
+    <t>Jalu</t>
+  </si>
+  <si>
+    <t>JM4</t>
+  </si>
+  <si>
+    <t>Alan Phan</t>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
+  <si>
+    <t>JM5</t>
+  </si>
+  <si>
+    <t>Helen Ann</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>JM6</t>
+  </si>
+  <si>
+    <t>Jonh Ng</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>JM7</t>
+  </si>
+  <si>
+    <t>Been Tan</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>JM8</t>
+  </si>
+  <si>
+    <t>Tiger Hen</t>
+  </si>
+  <si>
+    <t>Mov</t>
   </si>
   <si>
     <t>1. Get rid of debt</t>
@@ -91,7 +145,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="MM/DD/YY"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -113,12 +167,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -181,7 +229,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -189,11 +237,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -214,16 +262,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.5204081632653"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="14.4285714285714"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="14.4285714285714"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="14.4285714285714"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -259,36 +309,72 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -352,27 +438,27 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="3" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -405,37 +491,37 @@
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
